--- a/Unity/Assets/Config/Excel/ItemPackConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="18705" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="ItemPackConfigProto" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F23"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>

--- a/Unity/Assets/Config/Excel/ItemPackConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ItemPackConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ItemPackConfigProto" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
